--- a/Firmware/v0.8 - Hard v0.4 - Beta/LCD - EEPROM - Layout - Firm v08.xlsx
+++ b/Firmware/v0.8 - Hard v0.4 - Beta/LCD - EEPROM - Layout - Firm v08.xlsx
@@ -745,8 +745,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AF83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="R83" sqref="R83"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3891,25 +3891,25 @@
         <v>19</v>
       </c>
       <c r="O81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S81" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="P81" s="1" t="s">
+      <c r="T81" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q81" s="6" t="s">
+      <c r="U81" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="R81" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S81" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="T81" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="U81" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="V81" s="6"/>
       <c r="Y81" s="6"/>
@@ -4054,8 +4054,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:EE33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="DZ30" sqref="DZ30"/>
+    <sheetView topLeftCell="CQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Firmware/v0.8 - Hard v0.4 - Beta/LCD - EEPROM - Layout - Firm v08.xlsx
+++ b/Firmware/v0.8 - Hard v0.4 - Beta/LCD - EEPROM - Layout - Firm v08.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="86">
   <si>
     <t>01</t>
   </si>
@@ -743,10 +743,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AF83"/>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="L83" sqref="L83"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2480,214 +2480,71 @@
       <c r="U49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V49" s="6"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V50" s="6"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="5"/>
       <c r="D51" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L51" s="5"/>
-      <c r="M51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="P51" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V51" s="6"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L52" s="5"/>
-      <c r="M52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V52" s="6"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L53" s="5"/>
-      <c r="M53" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V53" s="6"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
@@ -2756,237 +2613,75 @@
       <c r="A56" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J57" s="5"/>
-      <c r="K57" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O57" s="5"/>
-      <c r="P57" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q57" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="R57" s="6" t="s">
-        <v>45</v>
+      <c r="P57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O58" s="5"/>
-      <c r="P58" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q58" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R58" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L59" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O59" s="5"/>
-      <c r="P59" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T59" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="P60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U60" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A60" s="7"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
@@ -3050,6 +2745,7 @@
       <c r="U61" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="V61" s="6"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -3059,186 +2755,206 @@
         <v>21</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P62" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="Q62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V62" s="6"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="6" t="s">
+      <c r="C63" s="5"/>
+      <c r="D63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I63" s="6" t="s">
+      <c r="I63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J63" s="5"/>
-      <c r="K63" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>19</v>
+      <c r="L63" s="5"/>
+      <c r="M63" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="V63" s="6"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D64" s="6" t="s">
+      <c r="C64" s="5"/>
+      <c r="D64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="I64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L64" s="5"/>
+      <c r="M64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U64" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J64" s="5"/>
-      <c r="K64" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L64" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M64" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R64" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="S64" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="T64" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="V64" s="6"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="C65" s="5"/>
       <c r="D65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L65" s="5"/>
+      <c r="M65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q65" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" s="6" t="s">
+      <c r="R65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S65" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H65" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J65" s="5"/>
-      <c r="K65" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M65" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="T65" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="V65" s="6"/>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="2" t="s">
         <v>53</v>
@@ -3301,169 +3017,243 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J68" s="5"/>
       <c r="K68" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="R68" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="S68" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T68" s="6" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="B69" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J69" s="5"/>
       <c r="K69" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N69" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O69" s="5"/>
+      <c r="P69" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q69" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O69" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="R69" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S69" s="6" t="s">
-        <v>19</v>
+        <v>45</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B70" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G70" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="H70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J70" s="5"/>
+      <c r="K70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O70" s="5"/>
+      <c r="P70" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q70" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K70" s="1" t="s">
+      <c r="T70" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R70" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S70" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="T70" s="6"/>
+      <c r="U70" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="6" t="s">
+      <c r="B71" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J71" s="5"/>
+      <c r="K71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O71" s="5"/>
+      <c r="P71" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R71" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="S71" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="T71" s="6" t="s">
+      <c r="Q72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R72" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="S72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="2" t="s">
         <v>53</v>
@@ -3526,220 +3316,194 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G74" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N74" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O74" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P74" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q74" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="R74" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="T74" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" s="6" t="s">
+      <c r="E75" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G75" s="6" t="s">
+      <c r="I75" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J75" s="5"/>
+      <c r="K75" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O75" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I75" s="5"/>
-      <c r="J75" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L75" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M75" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R75" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S75" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T75" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE75" s="1"/>
-      <c r="AF75" s="1"/>
+      <c r="P75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="5"/>
       <c r="C76" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I76" s="5"/>
-      <c r="J76" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J76" s="5"/>
       <c r="K76" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="P76" s="5"/>
       <c r="Q76" s="6" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="R76" s="6" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="S76" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T76" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U76" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE76" s="1"/>
-      <c r="AF76" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>23</v>
+      <c r="C77" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I77" s="5"/>
-      <c r="J77" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J77" s="5"/>
       <c r="K77" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S77" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L77" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M77" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
-      <c r="AE77" s="1"/>
-      <c r="AF77" s="1"/>
+      <c r="T77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="2" t="s">
         <v>53</v>
@@ -3801,101 +3565,93 @@
       <c r="U79" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V79" s="6"/>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R80" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S80" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T80" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O80" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P80" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q80" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="U80" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V80" s="6"/>
+        <v>44</v>
+      </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="E81" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F81" s="6" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K81" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="L81" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P81" s="5"/>
       <c r="Q81" s="6" t="s">
         <v>19</v>
       </c>
@@ -3903,145 +3659,659 @@
         <v>19</v>
       </c>
       <c r="S81" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T81" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="U81" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="V81" s="6"/>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
-      <c r="AA81" s="6"/>
-      <c r="AB81" s="6"/>
-      <c r="AC81" s="6"/>
+        <v>19</v>
+      </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G82" s="1" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K82" s="5"/>
-      <c r="L82" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="P82" s="5"/>
       <c r="Q82" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R82" s="6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="S82" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="T82" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V82" s="6"/>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="6"/>
-      <c r="AA82" s="6"/>
-      <c r="AB82" s="6"/>
-      <c r="AC82" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="T82" s="6"/>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K83" s="5"/>
-      <c r="L83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R83" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S83" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T83" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U85" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O86" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P86" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q86" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R86" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S86" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U86" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" s="5"/>
+      <c r="J87" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S87" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T87" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I88" s="5"/>
+      <c r="J88" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R88" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S88" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T88" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U88" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I89" s="5"/>
+      <c r="J89" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R89" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S89" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T89" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V91" s="6"/>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R83" s="1" t="s">
+      <c r="C92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O92" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P92" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q92" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="U92" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V92" s="6"/>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K93" s="5"/>
+      <c r="L93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S93" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="T93" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U93" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V93" s="6"/>
+      <c r="Y93" s="6"/>
+      <c r="Z93" s="6"/>
+      <c r="AA93" s="6"/>
+      <c r="AB93" s="6"/>
+      <c r="AC93" s="6"/>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S83" s="1" t="s">
+      <c r="G94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T83" s="1" t="s">
+      <c r="I94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K94" s="5"/>
+      <c r="L94" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R94" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S94" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="U83" s="1" t="s">
+      <c r="T94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V94" s="6"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="6"/>
+      <c r="AA94" s="6"/>
+      <c r="AB94" s="6"/>
+      <c r="AC94" s="1"/>
+    </row>
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K95" s="5"/>
+      <c r="L95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R95" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V83" s="6"/>
-      <c r="Y83" s="6"/>
-      <c r="Z83" s="6"/>
-      <c r="AA83" s="6"/>
-      <c r="AB83" s="6"/>
-      <c r="AC83" s="1"/>
+      <c r="S95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U95" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V95" s="6"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="6"/>
+      <c r="AA95" s="6"/>
+      <c r="AB95" s="6"/>
+      <c r="AC95" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Firmware/v0.8 - Hard v0.4 - Beta/LCD - EEPROM - Layout - Firm v08.xlsx
+++ b/Firmware/v0.8 - Hard v0.4 - Beta/LCD - EEPROM - Layout - Firm v08.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="87">
   <si>
     <t>01</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Universo 2</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
 </sst>
 </file>
@@ -743,10 +746,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AF95"/>
+  <dimension ref="A1:AF108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="U59" sqref="U59"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="L107" sqref="L107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,121 +941,61 @@
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="U5" s="1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>53</v>
@@ -1114,242 +1057,127 @@
       <c r="U7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="K9" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="O9" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="K11" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="O11" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="S11" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>53</v>
@@ -1411,112 +1239,239 @@
       <c r="U13" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
+      <c r="B14" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="N14" s="5"/>
       <c r="O14" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="5"/>
+      <c r="S15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F16" s="5"/>
       <c r="G16" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="Q16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="R16" s="5"/>
       <c r="S16" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="5"/>
+      <c r="S17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -1581,191 +1536,113 @@
       <c r="U19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V19" s="6"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V20" s="6"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V21" s="6"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="N22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="V22" s="6"/>
+      <c r="U22" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V23" s="6"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
@@ -1829,54 +1706,52 @@
       <c r="U25" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="V25" s="6"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="O26" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T26" s="1" t="s">
@@ -1885,115 +1760,119 @@
       <c r="U26" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V26" s="6"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="O27" s="6"/>
+      <c r="V27" s="6"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="H28" s="5"/>
       <c r="I28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="K28" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>44</v>
+        <v>65</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V28" s="6"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D29" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="L29" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="U29" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="V29" s="6"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -2062,77 +1941,165 @@
       <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="J34" s="5"/>
       <c r="K34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" s="5"/>
+      <c r="P34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O35" s="5"/>
+      <c r="P35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -2226,21 +2193,24 @@
         <v>55</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="M39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="O39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="Q39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="R39" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2344,46 +2314,40 @@
       <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="L45" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="M45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="P45" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R45" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2391,22 +2355,22 @@
       <c r="A46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2415,10 +2379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="2" t="s">
         <v>53</v>
@@ -2481,12 +2442,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
@@ -2509,19 +2470,19 @@
         <v>55</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>25</v>
@@ -2533,20 +2494,38 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="2" t="s">
         <v>53</v>
@@ -2609,12 +2588,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>0</v>
       </c>
@@ -2637,19 +2616,19 @@
         <v>55</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>32</v>
@@ -2670,20 +2649,38 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
         <v>53</v>
@@ -2745,214 +2742,71 @@
       <c r="U61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V61" s="6"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V62" s="6"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="5"/>
       <c r="D63" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O63" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L63" s="5"/>
-      <c r="M63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="P63" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V63" s="6"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L64" s="5"/>
-      <c r="M64" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V64" s="6"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L65" s="5"/>
-      <c r="M65" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T65" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V65" s="6"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
@@ -3021,237 +2875,75 @@
       <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J68" s="5"/>
-      <c r="K68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U68" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O69" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J69" s="5"/>
-      <c r="K69" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M69" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O69" s="5"/>
-      <c r="P69" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q69" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="R69" s="6" t="s">
-        <v>45</v>
+      <c r="P69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J70" s="5"/>
-      <c r="K70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O70" s="5"/>
-      <c r="P70" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q70" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R70" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T70" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U70" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J71" s="5"/>
-      <c r="K71" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M71" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O71" s="5"/>
-      <c r="P71" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S71" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T71" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="P72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T72" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U72" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A72" s="7"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
@@ -3315,6 +3007,7 @@
       <c r="U73" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="V73" s="6"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -3324,184 +3017,204 @@
         <v>21</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P74" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="Q74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V74" s="6"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H75" s="6" t="s">
+      <c r="C75" s="5"/>
+      <c r="D75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I75" s="6" t="s">
+      <c r="I75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J75" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J75" s="5"/>
-      <c r="K75" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L75" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M75" s="6" t="s">
-        <v>19</v>
+      <c r="L75" s="5"/>
+      <c r="M75" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S75" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="V75" s="6"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D76" s="6" t="s">
+      <c r="C76" s="5"/>
+      <c r="D76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="I76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L76" s="5"/>
+      <c r="M76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U76" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J76" s="5"/>
-      <c r="K76" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L76" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M76" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R76" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="S76" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="T76" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="V76" s="6"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="C77" s="5"/>
       <c r="D77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L77" s="5"/>
+      <c r="M77" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q77" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" s="6" t="s">
+      <c r="R77" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S77" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H77" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J77" s="5"/>
-      <c r="K77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="R77" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S77" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="T77" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U77" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="V77" s="6"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
@@ -3571,164 +3284,238 @@
         <v>53</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J80" s="5"/>
       <c r="K80" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="R80" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="S80" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T80" s="6" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="B81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J81" s="5"/>
       <c r="K81" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O81" s="5"/>
+      <c r="P81" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q81" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O81" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="R81" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S81" s="6" t="s">
-        <v>19</v>
+        <v>45</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B82" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G82" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="H82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J82" s="5"/>
+      <c r="K82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O82" s="5"/>
+      <c r="P82" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q82" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R82" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S82" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K82" s="1" t="s">
+      <c r="T82" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L82" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R82" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S82" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="T82" s="6"/>
+      <c r="U82" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="6" t="s">
+      <c r="B83" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J83" s="5"/>
+      <c r="K83" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O83" s="5"/>
+      <c r="P83" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T83" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P84" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R83" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="S83" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="T83" s="6" t="s">
+      <c r="Q84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R84" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="S84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="2" t="s">
         <v>53</v>
@@ -3791,225 +3578,194 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O86" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P86" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q86" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R86" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="S86" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="U86" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D87" s="6" t="s">
+      <c r="E87" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E87" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G87" s="6" t="s">
+      <c r="I87" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J87" s="5"/>
+      <c r="K87" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O87" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I87" s="5"/>
-      <c r="J87" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L87" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M87" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R87" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S87" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T87" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U87" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE87" s="1"/>
-      <c r="AF87" s="1"/>
+      <c r="P87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="5"/>
       <c r="C88" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I88" s="5"/>
-      <c r="J88" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J88" s="5"/>
       <c r="K88" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="P88" s="5"/>
       <c r="Q88" s="6" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="R88" s="6" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="S88" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T88" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U88" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE88" s="1"/>
-      <c r="AF88" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>23</v>
+      <c r="C89" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I89" s="5"/>
-      <c r="J89" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J89" s="5"/>
       <c r="K89" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="P89" s="5"/>
       <c r="Q89" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R89" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S89" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="T89" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R89" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE89" s="1"/>
-      <c r="AF89" s="1"/>
+      <c r="S89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U89" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="2" t="s">
         <v>53</v>
@@ -4071,101 +3827,93 @@
       <c r="U91" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V91" s="6"/>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R92" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S92" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T92" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O92" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P92" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q92" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="U92" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V92" s="6"/>
+        <v>44</v>
+      </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="E93" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F93" s="6" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K93" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="L93" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O93" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P93" s="5"/>
       <c r="Q93" s="6" t="s">
         <v>19</v>
       </c>
@@ -4173,145 +3921,673 @@
         <v>19</v>
       </c>
       <c r="S93" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T93" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="U93" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="V93" s="6"/>
-      <c r="Y93" s="6"/>
-      <c r="Z93" s="6"/>
-      <c r="AA93" s="6"/>
-      <c r="AB93" s="6"/>
-      <c r="AC93" s="6"/>
+        <v>19</v>
+      </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G94" s="1" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K94" s="5"/>
-      <c r="L94" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="P94" s="5"/>
       <c r="Q94" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R94" s="6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="S94" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="T94" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V94" s="6"/>
-      <c r="Y94" s="6"/>
-      <c r="Z94" s="6"/>
-      <c r="AA94" s="6"/>
-      <c r="AB94" s="6"/>
-      <c r="AC94" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="T94" s="6"/>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K95" s="5"/>
-      <c r="L95" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R95" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S95" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T95" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O98" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P98" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q98" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R98" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S98" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U98" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I99" s="5"/>
+      <c r="J99" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R99" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S99" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T99" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U99" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1"/>
+    </row>
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I100" s="5"/>
+      <c r="J100" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R100" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S100" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T100" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U100" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE100" s="1"/>
+      <c r="AF100" s="1"/>
+    </row>
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I101" s="5"/>
+      <c r="J101" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R101" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S101" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T101" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE101" s="1"/>
+      <c r="AF101" s="1"/>
+    </row>
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V103" s="6"/>
+    </row>
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R95" s="1" t="s">
+      <c r="C104" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O104" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P104" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q104" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="U104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V104" s="6"/>
+    </row>
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K105" s="5"/>
+      <c r="L105" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q105" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R105" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S105" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="T105" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U105" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V105" s="6"/>
+      <c r="Y105" s="6"/>
+      <c r="Z105" s="6"/>
+      <c r="AA105" s="6"/>
+      <c r="AB105" s="6"/>
+      <c r="AC105" s="6"/>
+    </row>
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S95" s="1" t="s">
+      <c r="G106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T95" s="1" t="s">
+      <c r="I106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K106" s="5"/>
+      <c r="L106" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R106" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S106" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="U95" s="1" t="s">
+      <c r="T106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V106" s="6"/>
+      <c r="Y106" s="6"/>
+      <c r="Z106" s="6"/>
+      <c r="AA106" s="6"/>
+      <c r="AB106" s="6"/>
+      <c r="AC106" s="1"/>
+    </row>
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K107" s="5"/>
+      <c r="L107" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R107" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V95" s="6"/>
-      <c r="Y95" s="6"/>
-      <c r="Z95" s="6"/>
-      <c r="AA95" s="6"/>
-      <c r="AB95" s="6"/>
-      <c r="AC95" s="1"/>
+      <c r="S107" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T107" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U107" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V107" s="6"/>
+      <c r="Y107" s="6"/>
+      <c r="Z107" s="6"/>
+      <c r="AA107" s="6"/>
+      <c r="AB107" s="6"/>
+      <c r="AC107" s="1"/>
+    </row>
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Q108" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T108" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4324,8 +4600,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:EE33"/>
   <sheetViews>
-    <sheetView topLeftCell="CQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView topLeftCell="CQ10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CU36" sqref="CU36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
